--- a/sheetsCar/WUFR23.xlsx
+++ b/sheetsCar/WUFR23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\austi\OneDrive\Desktop\OpenLAP-wufr\sheetsCar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\racing\OpenLAP\sheetsCar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C41584-4D76-4768-A82A-C96285B912DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9655D2-3BDE-44A7-AE83-95F9595138ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -330,13 +330,13 @@
     <t>From crancskaft to Input shaft.</t>
   </si>
   <si>
-    <t>2WD</t>
-  </si>
-  <si>
     <t>WUFR23</t>
   </si>
   <si>
     <t>FullCar</t>
+  </si>
+  <si>
+    <t>Rear</t>
   </si>
 </sst>
 </file>
@@ -1011,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1048,7 +1048,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>37</v>
@@ -1061,7 +1061,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>37</v>
@@ -1076,7 +1076,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="9">
-        <v>436.65</v>
+        <v>197.77</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>6</v>
@@ -1400,7 +1400,7 @@
         <v>32</v>
       </c>
       <c r="C26" s="4">
-        <v>109.16</v>
+        <v>49.44</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>6</v>
@@ -1445,7 +1445,7 @@
         <v>39</v>
       </c>
       <c r="C29" s="4">
-        <v>109.16</v>
+        <v>49.44</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>6</v>
@@ -1475,7 +1475,7 @@
         <v>41</v>
       </c>
       <c r="C31" s="4">
-        <v>800</v>
+        <v>779</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>43</v>
@@ -1490,7 +1490,7 @@
         <v>42</v>
       </c>
       <c r="C32" s="13">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>43</v>
@@ -1520,7 +1520,7 @@
         <v>51</v>
       </c>
       <c r="C34" s="4">
-        <v>0.3</v>
+        <v>0.47</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>37</v>
@@ -1552,7 +1552,7 @@
         <v>55</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>37</v>
@@ -1565,7 +1565,7 @@
         <v>77</v>
       </c>
       <c r="C37" s="6">
-        <v>0.25</v>
+        <v>0.04</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>78</v>
@@ -1580,7 +1580,7 @@
         <v>73</v>
       </c>
       <c r="C38" s="6">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>37</v>
@@ -1595,7 +1595,7 @@
         <v>74</v>
       </c>
       <c r="C39" s="6">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>37</v>
@@ -1610,7 +1610,7 @@
         <v>75</v>
       </c>
       <c r="C40" s="6">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>37</v>
@@ -1640,7 +1640,7 @@
         <v>59</v>
       </c>
       <c r="C42" s="4">
-        <v>2.2730000000000001</v>
+        <v>3.2730000000000001</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>37</v>
@@ -1653,7 +1653,7 @@
         <v>60</v>
       </c>
       <c r="C43" s="4">
-        <v>2.5819999999999999</v>
+        <v>2.5830000000000002</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>37</v>

--- a/sheetsCar/WUFR23.xlsx
+++ b/sheetsCar/WUFR23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\racing\OpenLAP\sheetsCar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9655D2-3BDE-44A7-AE83-95F9595138ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63265664-A5BF-416F-805A-288274481202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -736,8 +736,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:B7" totalsRowShown="0">
-  <autoFilter ref="A1:B7" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:B21" totalsRowShown="0">
+  <autoFilter ref="A1:B21" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Engine Speed [rpm]"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Torque [Nm]"/>
@@ -1011,7 +1011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -1786,10 +1786,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1808,51 +1808,167 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>5054</v>
+        <v>1500</v>
       </c>
       <c r="B2" s="1">
-        <v>35.25</v>
+        <v>34.190677999999998</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>6007</v>
+        <v>2000</v>
       </c>
       <c r="B3" s="1">
-        <v>44.74</v>
+        <v>38.153267</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>7029</v>
+        <v>2500</v>
       </c>
       <c r="B4" s="1">
-        <v>42.02</v>
+        <v>42.697853000000002</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>8079</v>
+        <v>3000</v>
       </c>
       <c r="B5" s="1">
-        <v>46.09</v>
+        <v>43.89132</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>9039</v>
+        <v>3500</v>
       </c>
       <c r="B6" s="1">
-        <v>47.45</v>
+        <v>44.134804000000003</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>9954</v>
+        <v>4000</v>
       </c>
       <c r="B7" s="1">
-        <v>58.3</v>
-      </c>
+        <v>46.994895999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>4500</v>
+      </c>
+      <c r="B8" s="1">
+        <v>47.800423000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>5000</v>
+      </c>
+      <c r="B9" s="1">
+        <v>46.561329999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>5500</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45.235340000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>6000</v>
+      </c>
+      <c r="B11" s="1">
+        <v>46.627839999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>6500</v>
+      </c>
+      <c r="B12" s="1">
+        <v>49.217013999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>7000</v>
+      </c>
+      <c r="B13" s="1">
+        <v>49.137928000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>7500</v>
+      </c>
+      <c r="B14" s="1">
+        <v>49.847115000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>8000</v>
+      </c>
+      <c r="B15" s="1">
+        <v>49.267456000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>8500</v>
+      </c>
+      <c r="B16" s="1">
+        <v>48.523453000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>9000</v>
+      </c>
+      <c r="B17" s="1">
+        <v>48.711413999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>9500</v>
+      </c>
+      <c r="B18" s="1">
+        <v>49.107340000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>10000</v>
+      </c>
+      <c r="B19" s="1">
+        <v>49.290390000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>10500</v>
+      </c>
+      <c r="B20" s="1">
+        <v>48.222360000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>11000</v>
+      </c>
+      <c r="B21" s="1">
+        <v>46.390320000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sheetsCar/WUFR23.xlsx
+++ b/sheetsCar/WUFR23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\racing\OpenLAP\sheetsCar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\austi\OneDrive\Desktop\racing\WUFROpenLAP\sheetsCar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63265664-A5BF-416F-805A-288274481202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204EBD9E-A6DD-4E0A-9668-F2571B17172F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -1011,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1136,7 +1136,7 @@
         <v>71</v>
       </c>
       <c r="C8" s="9">
-        <v>-2.71</v>
+        <v>-3.6659999999999999</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>37</v>
@@ -1151,7 +1151,7 @@
         <v>72</v>
       </c>
       <c r="C9" s="4">
-        <v>-1.1399999999999999</v>
+        <v>-1.3460000000000001</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>37</v>
@@ -1788,7 +1788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
